--- a/template/invoiceTem8.xlsx
+++ b/template/invoiceTem8.xlsx
@@ -1,44 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\home\soft\git\highablePrint\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A881F8D2-CC7B-4969-B347-5468B42D82D8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB1F563-47C6-4B23-BB88-D98CB7895C59}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1875" yWindow="630" windowWidth="25425" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="J21921" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'J21921'!$A$1:$L$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">sheet1!$A$1:$L$30</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>IRONDALE FASHION INTERNATIONAL LIMITED</t>
-  </si>
-  <si>
-    <t>UNIT 11 BLK B 10/F, HOI LUEN IND CTR,</t>
-  </si>
-  <si>
-    <t>55 HOI YUEN RD, KWUN TONG,HK</t>
-  </si>
-  <si>
-    <t>TEL: 23275217   FAX: 23500954</t>
-  </si>
-  <si>
-    <t>INVOICE NO.199/17</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">M/S. </t>
   </si>
@@ -65,6 +50,10 @@
   </si>
   <si>
     <t>QUANTITY</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>INVOICE NO.</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -355,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -435,13 +424,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -451,6 +438,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -770,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z983"/>
+  <dimension ref="A1:Z987"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -794,9 +784,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A1" s="37" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1" s="37"/>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
@@ -824,9 +812,7 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A2" s="39" t="s">
-        <v>1</v>
-      </c>
+      <c r="A2" s="39"/>
       <c r="B2" s="38"/>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
@@ -854,9 +840,7 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A3" s="39" t="s">
-        <v>2</v>
-      </c>
+      <c r="A3" s="39"/>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
       <c r="D3" s="38"/>
@@ -884,9 +868,7 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A4" s="39" t="s">
-        <v>3</v>
-      </c>
+      <c r="A4" s="39"/>
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
@@ -943,7 +925,7 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="40" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
@@ -1001,7 +983,7 @@
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1013,7 +995,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="2"/>
@@ -1172,25 +1154,25 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A14" s="33" t="s">
-        <v>13</v>
+      <c r="A14" s="41" t="s">
+        <v>8</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="35" t="s">
-        <v>7</v>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="34" t="s">
+        <v>2</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
       <c r="J14" s="36"/>
       <c r="K14" s="23" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L14" s="23" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
@@ -1347,16 +1329,16 @@
       <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
     </row>
-    <row r="20" spans="1:26" ht="13.5" customHeight="1">
+    <row r="20" spans="1:26" s="33" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="9"/>
       <c r="B20" s="32"/>
       <c r="C20" s="32"/>
       <c r="D20" s="32"/>
       <c r="E20" s="17"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="14"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
@@ -1375,7 +1357,7 @@
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
     </row>
-    <row r="21" spans="1:26" ht="13.5" customHeight="1">
+    <row r="21" spans="1:26" s="33" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="9"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -1386,8 +1368,8 @@
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
@@ -1403,21 +1385,19 @@
       <c r="Y21" s="8"/>
       <c r="Z21" s="8"/>
     </row>
-    <row r="22" spans="1:26" ht="13.5" customHeight="1">
+    <row r="22" spans="1:26" s="33" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="9"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
       <c r="D22" s="32"/>
       <c r="E22" s="17"/>
-      <c r="F22" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="F22" s="9"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="16"/>
+      <c r="I22" s="8"/>
       <c r="J22" s="8"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
@@ -1433,7 +1413,7 @@
       <c r="Y22" s="8"/>
       <c r="Z22" s="8"/>
     </row>
-    <row r="23" spans="1:26" ht="13.5" customHeight="1">
+    <row r="23" spans="1:26" s="33" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="9"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -1442,10 +1422,10 @@
       <c r="F23" s="9"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="16"/>
+      <c r="I23" s="8"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
@@ -1467,15 +1447,13 @@
       <c r="C24" s="32"/>
       <c r="D24" s="32"/>
       <c r="E24" s="17"/>
-      <c r="F24" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="19"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="14"/>
       <c r="J24" s="8"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
@@ -1497,10 +1475,10 @@
       <c r="C25" s="32"/>
       <c r="D25" s="32"/>
       <c r="E25" s="17"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
@@ -1519,21 +1497,21 @@
       <c r="Y25" s="8"/>
       <c r="Z25" s="8"/>
     </row>
-    <row r="26" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A26" s="27"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26" t="s">
-        <v>12</v>
+    <row r="26" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A26" s="9"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="9" t="s">
+        <v>5</v>
       </c>
-      <c r="I26" s="26"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
@@ -1549,19 +1527,19 @@
       <c r="Y26" s="8"/>
       <c r="Z26" s="8"/>
     </row>
-    <row r="27" spans="1:26" ht="12" customHeight="1">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
+    <row r="27" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A27" s="9"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="9"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
+      <c r="I27" s="16"/>
       <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
@@ -1577,19 +1555,21 @@
       <c r="Y27" s="8"/>
       <c r="Z27" s="8"/>
     </row>
-    <row r="28" spans="1:26" ht="9.75" customHeight="1">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
+    <row r="28" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A28" s="9"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="19"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
@@ -1605,19 +1585,19 @@
       <c r="Y28" s="8"/>
       <c r="Z28" s="8"/>
     </row>
-    <row r="29" spans="1:26" ht="9.75" customHeight="1">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
+    <row r="29" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A29" s="9"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
       <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
@@ -1633,19 +1613,21 @@
       <c r="Y29" s="8"/>
       <c r="Z29" s="8"/>
     </row>
-    <row r="30" spans="1:26" ht="9.75" customHeight="1">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
+    <row r="30" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A30" s="27"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="26"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
@@ -1661,7 +1643,7 @@
       <c r="Y30" s="8"/>
       <c r="Z30" s="8"/>
     </row>
-    <row r="31" spans="1:26" ht="9.75" customHeight="1">
+    <row r="31" spans="1:26" ht="12" customHeight="1">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -2866,11 +2848,11 @@
       <c r="Z73" s="8"/>
     </row>
     <row r="74" spans="1:26" ht="9.75" customHeight="1">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c r="H74" s="8"/>
@@ -2893,7 +2875,7 @@
       <c r="Y74" s="8"/>
       <c r="Z74" s="8"/>
     </row>
-    <row r="75" spans="1:26" ht="15.75" customHeight="1">
+    <row r="75" spans="1:26" ht="9.75" customHeight="1">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -2921,7 +2903,7 @@
       <c r="Y75" s="8"/>
       <c r="Z75" s="8"/>
     </row>
-    <row r="76" spans="1:26" ht="15.75" customHeight="1">
+    <row r="76" spans="1:26" ht="9.75" customHeight="1">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -2949,117 +2931,117 @@
       <c r="Y76" s="8"/>
       <c r="Z76" s="8"/>
     </row>
-    <row r="77" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
-      <c r="R77" s="1"/>
-      <c r="S77" s="1"/>
-      <c r="T77" s="1"/>
-      <c r="U77" s="1"/>
-      <c r="V77" s="1"/>
-      <c r="W77" s="1"/>
-      <c r="X77" s="1"/>
-      <c r="Y77" s="1"/>
-      <c r="Z77" s="1"/>
-    </row>
-    <row r="78" spans="1:26" ht="15.75" customHeight="1">
+    <row r="77" spans="1:26" ht="9.75" customHeight="1">
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="8"/>
+      <c r="P77" s="8"/>
+      <c r="Q77" s="8"/>
+      <c r="R77" s="8"/>
+      <c r="S77" s="8"/>
+      <c r="T77" s="8"/>
+      <c r="U77" s="8"/>
+      <c r="V77" s="8"/>
+      <c r="W77" s="8"/>
+      <c r="X77" s="8"/>
+      <c r="Y77" s="8"/>
+      <c r="Z77" s="8"/>
+    </row>
+    <row r="78" spans="1:26" ht="9.75" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
-      <c r="Q78" s="1"/>
-      <c r="R78" s="1"/>
-      <c r="S78" s="1"/>
-      <c r="T78" s="1"/>
-      <c r="U78" s="1"/>
-      <c r="V78" s="1"/>
-      <c r="W78" s="1"/>
-      <c r="X78" s="1"/>
-      <c r="Y78" s="1"/>
-      <c r="Z78" s="1"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
+      <c r="Q78" s="8"/>
+      <c r="R78" s="8"/>
+      <c r="S78" s="8"/>
+      <c r="T78" s="8"/>
+      <c r="U78" s="8"/>
+      <c r="V78" s="8"/>
+      <c r="W78" s="8"/>
+      <c r="X78" s="8"/>
+      <c r="Y78" s="8"/>
+      <c r="Z78" s="8"/>
     </row>
     <row r="79" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
-      <c r="O79" s="1"/>
-      <c r="P79" s="1"/>
-      <c r="Q79" s="1"/>
-      <c r="R79" s="1"/>
-      <c r="S79" s="1"/>
-      <c r="T79" s="1"/>
-      <c r="U79" s="1"/>
-      <c r="V79" s="1"/>
-      <c r="W79" s="1"/>
-      <c r="X79" s="1"/>
-      <c r="Y79" s="1"/>
-      <c r="Z79" s="1"/>
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="8"/>
+      <c r="N79" s="8"/>
+      <c r="O79" s="8"/>
+      <c r="P79" s="8"/>
+      <c r="Q79" s="8"/>
+      <c r="R79" s="8"/>
+      <c r="S79" s="8"/>
+      <c r="T79" s="8"/>
+      <c r="U79" s="8"/>
+      <c r="V79" s="8"/>
+      <c r="W79" s="8"/>
+      <c r="X79" s="8"/>
+      <c r="Y79" s="8"/>
+      <c r="Z79" s="8"/>
     </row>
     <row r="80" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
-      <c r="O80" s="1"/>
-      <c r="P80" s="1"/>
-      <c r="Q80" s="1"/>
-      <c r="R80" s="1"/>
-      <c r="S80" s="1"/>
-      <c r="T80" s="1"/>
-      <c r="U80" s="1"/>
-      <c r="V80" s="1"/>
-      <c r="W80" s="1"/>
-      <c r="X80" s="1"/>
-      <c r="Y80" s="1"/>
-      <c r="Z80" s="1"/>
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="8"/>
+      <c r="N80" s="8"/>
+      <c r="O80" s="8"/>
+      <c r="P80" s="8"/>
+      <c r="Q80" s="8"/>
+      <c r="R80" s="8"/>
+      <c r="S80" s="8"/>
+      <c r="T80" s="8"/>
+      <c r="U80" s="8"/>
+      <c r="V80" s="8"/>
+      <c r="W80" s="8"/>
+      <c r="X80" s="8"/>
+      <c r="Y80" s="8"/>
+      <c r="Z80" s="8"/>
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1">
       <c r="A81" s="1"/>
@@ -28345,6 +28327,118 @@
       <c r="Y983" s="1"/>
       <c r="Z983" s="1"/>
     </row>
+    <row r="984" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A984" s="1"/>
+      <c r="B984" s="1"/>
+      <c r="C984" s="1"/>
+      <c r="D984" s="1"/>
+      <c r="E984" s="1"/>
+      <c r="F984" s="1"/>
+      <c r="G984" s="1"/>
+      <c r="H984" s="1"/>
+      <c r="I984" s="1"/>
+      <c r="J984" s="1"/>
+      <c r="K984" s="1"/>
+      <c r="L984" s="1"/>
+      <c r="M984" s="1"/>
+      <c r="N984" s="1"/>
+      <c r="O984" s="1"/>
+      <c r="P984" s="1"/>
+      <c r="Q984" s="1"/>
+      <c r="R984" s="1"/>
+      <c r="S984" s="1"/>
+      <c r="T984" s="1"/>
+      <c r="U984" s="1"/>
+      <c r="V984" s="1"/>
+      <c r="W984" s="1"/>
+      <c r="X984" s="1"/>
+      <c r="Y984" s="1"/>
+      <c r="Z984" s="1"/>
+    </row>
+    <row r="985" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A985" s="1"/>
+      <c r="B985" s="1"/>
+      <c r="C985" s="1"/>
+      <c r="D985" s="1"/>
+      <c r="E985" s="1"/>
+      <c r="F985" s="1"/>
+      <c r="G985" s="1"/>
+      <c r="H985" s="1"/>
+      <c r="I985" s="1"/>
+      <c r="J985" s="1"/>
+      <c r="K985" s="1"/>
+      <c r="L985" s="1"/>
+      <c r="M985" s="1"/>
+      <c r="N985" s="1"/>
+      <c r="O985" s="1"/>
+      <c r="P985" s="1"/>
+      <c r="Q985" s="1"/>
+      <c r="R985" s="1"/>
+      <c r="S985" s="1"/>
+      <c r="T985" s="1"/>
+      <c r="U985" s="1"/>
+      <c r="V985" s="1"/>
+      <c r="W985" s="1"/>
+      <c r="X985" s="1"/>
+      <c r="Y985" s="1"/>
+      <c r="Z985" s="1"/>
+    </row>
+    <row r="986" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A986" s="1"/>
+      <c r="B986" s="1"/>
+      <c r="C986" s="1"/>
+      <c r="D986" s="1"/>
+      <c r="E986" s="1"/>
+      <c r="F986" s="1"/>
+      <c r="G986" s="1"/>
+      <c r="H986" s="1"/>
+      <c r="I986" s="1"/>
+      <c r="J986" s="1"/>
+      <c r="K986" s="1"/>
+      <c r="L986" s="1"/>
+      <c r="M986" s="1"/>
+      <c r="N986" s="1"/>
+      <c r="O986" s="1"/>
+      <c r="P986" s="1"/>
+      <c r="Q986" s="1"/>
+      <c r="R986" s="1"/>
+      <c r="S986" s="1"/>
+      <c r="T986" s="1"/>
+      <c r="U986" s="1"/>
+      <c r="V986" s="1"/>
+      <c r="W986" s="1"/>
+      <c r="X986" s="1"/>
+      <c r="Y986" s="1"/>
+      <c r="Z986" s="1"/>
+    </row>
+    <row r="987" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A987" s="1"/>
+      <c r="B987" s="1"/>
+      <c r="C987" s="1"/>
+      <c r="D987" s="1"/>
+      <c r="E987" s="1"/>
+      <c r="F987" s="1"/>
+      <c r="G987" s="1"/>
+      <c r="H987" s="1"/>
+      <c r="I987" s="1"/>
+      <c r="J987" s="1"/>
+      <c r="K987" s="1"/>
+      <c r="L987" s="1"/>
+      <c r="M987" s="1"/>
+      <c r="N987" s="1"/>
+      <c r="O987" s="1"/>
+      <c r="P987" s="1"/>
+      <c r="Q987" s="1"/>
+      <c r="R987" s="1"/>
+      <c r="S987" s="1"/>
+      <c r="T987" s="1"/>
+      <c r="U987" s="1"/>
+      <c r="V987" s="1"/>
+      <c r="W987" s="1"/>
+      <c r="X987" s="1"/>
+      <c r="Y987" s="1"/>
+      <c r="Z987" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="F14:J14"/>
@@ -28357,6 +28451,6 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>